--- a/indeling.xlsx
+++ b/indeling.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>user_id</t>
   </si>
@@ -52,14 +52,31 @@
   </si>
   <si>
     <t>cart_picture</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>users</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -391,11 +409,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -406,68 +422,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="A1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43488</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
